--- a/biology/Zoologie/Argiope_keyserlingi/Argiope_keyserlingi.xlsx
+++ b/biology/Zoologie/Argiope_keyserlingi/Argiope_keyserlingi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argiope keyserlingi est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argiope keyserlingi est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre sur la côte orientale de la Nouvelle-Galles du Sud centrale jusqu'au sud du Queensland et sur l'île Lord Howe.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre sur la côte orientale de la Nouvelle-Galles du Sud centrale jusqu'au sud du Queensland et sur l'île Lord Howe.
 On rencontre également cette espèce dans l’état du Kerala, en Inde[réf. nécessaire].
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est souvent trouvée en larges populations dans les parcs et jardins, et plus particulièrement dans les feuilles de Lomandra longifolia.
 </t>
@@ -574,10 +590,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce ressemble à sa voisine Argiope aetherea. Le dimorphisme sexuel est important, la femelle étant beaucoup plus grande que le mâle.
-Les femelles mesurent de 9 à 16 mm[2].
+Les femelles mesurent de 9 à 16 mm.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Eugen von Keyserling.
 </t>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Karsch, 1878 : Exotisch-araneologisches. 2 Zeitschrift für die gesammten Naturwissenschaften, vol. 51, p. 771-826.</t>
         </is>
